--- a/yallkora/yallkora_links&headlines.xlsx
+++ b/yallkora/yallkora_links&headlines.xlsx
@@ -1,37 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="516" yWindow="612" windowWidth="21960" windowHeight="8676"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>الترتيب</t>
+  </si>
+  <si>
+    <t>عناوين الأخبار</t>
+  </si>
+  <si>
+    <t>لينك الخبر علي موقع يلاكورة ( تحويل مباشر )</t>
+  </si>
+  <si>
+    <t>رسميًا.. إقامة لقاء الرجاء والإسماعيلي بدون جماهير بسبب كورونا</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//arab-federation/2616/News/383402/%D8%B1%D8%B3%D9%85%D9%8A-%D8%A7-%D8%A5%D9%82%D8%A7%D9%85%D8%A9-%D9%84%D9%82%D8%A7%D8%A1-%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D8%A1-%D9%88%D8%A7%D9%84%D8%A5%D8%B3%D9%85%D8%A7%D8%B9%D9%8A%D9%84%D9%8A-%D8%A8%D8%AF%D9%88%D9%86-%D8%AC%D9%85%D8%A7%D9%87%D9%8A%D8%B1-%D8%A8%D8%B3%D8%A8%D8%A8-%D9%83%D9%88%D8%B1%D9%88%D9%86%D8%A7#HP_FeaturedArea</t>
+  </si>
+  <si>
+    <t>ديربي مانشستر.. يونايتد 1 - 0 سيتي .. خطورة من الضيوف</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//epl/2596/News/383396/%D8%AF%D9%8A%D8%B1%D8%A8%D9%8A-%D9%85%D8%A7%D9%86%D8%B4%D8%B3%D8%AA%D8%B1-%D9%8A%D9%88%D9%86%D8%A7%D9%8A%D8%AA%D8%AF-1-0-%D8%B3%D9%8A%D8%AA%D9%8A-%D8%AE%D8%B7%D9%88%D8%B1%D8%A9-%D9%85%D9%86-%D8%A7%D9%84%D8%B6%D9%8A%D9%88%D9%81#HP_FeaturedArea</t>
+  </si>
+  <si>
+    <t>حوريا يقصي إنييمبا ويتأهل لملاقاة بيراميدز في قبل نهائي الكونفدرالية</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//african-confederation-cup/2615/News/383406/%D8%AD%D9%88%D8%B1%D9%8A%D8%A7-%D9%8A%D9%82%D8%B5%D9%8A-%D8%A5%D9%86%D9%8A%D9%8A%D9%85%D8%A8%D8%A7-%D9%88%D9%8A%D8%AA%D8%A3%D9%87%D9%84-%D9%84%D9%85%D9%84%D8%A7%D9%82%D8%A7%D8%A9-%D8%A8%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D8%AF%D8%B2-%D9%81%D9%8A-%D9%82%D8%A8%D9%84-%D9%86%D9%87%D8%A7%D8%A6%D9%8A-%D8%A7%D9%84%D9%83%D9%88%D9%86%D9%81%D8%AF%D8%B1%D8%A7%D9%84%D9%8A%D8%A9#HP_FeaturedArea</t>
+  </si>
+  <si>
+    <t>مران الأهلي.. محاضرة مطولة.. راحة لأجايى وجيرالدو.. وتدريب فردي لمعلول</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//african-champions-league/2614/News/383404/%D9%85%D8%B1%D8%A7%D9%86-%D8%A7%D9%84%D8%A3%D9%87%D9%84%D9%8A-%D9%85%D8%AD%D8%A7%D8%B6%D8%B1%D8%A9-%D9%85%D8%B7%D9%88%D9%84%D8%A9-%D8%B1%D8%A7%D8%AD%D8%A9-%D9%84%D8%A3%D8%AC%D8%A7%D9%8A%D9%89-%D9%88%D8%AC%D9%8A%D8%B1%D8%A7%D9%84%D8%AF%D9%88-%D9%88%D8%AA%D8%AF%D8%B1%D9%8A%D8%A8-%D9%81%D8%B1%D8%AF%D9%8A-%D9%84%D9%85%D8%B9%D9%84%D9%88%D9%84#HP_FeaturedArea</t>
+  </si>
+  <si>
+    <t>مارسيال يُعادل رقم كريستيانو رونالدو القياسي في ديربي مانشستر</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//epl/2596/News/383403/%D9%85%D8%A7%D8%B1%D8%B3%D9%8A%D8%A7%D9%84-%D9%8A-%D8%B9%D8%A7%D8%AF%D9%84-%D8%B1%D9%82%D9%85-%D9%83%D8%B1%D9%8A%D8%B3%D8%AA%D9%8A%D8%A7%D9%86%D9%88-%D8%B1%D9%88%D9%86%D8%A7%D9%84%D8%AF%D9%88-%D8%A7%D9%84%D9%82%D9%8A%D8%A7%D8%B3%D9%8A-%D9%81%D9%8A-%D8%AF%D9%8A%D8%B1%D8%A8%D9%8A-%D9%85%D8%A7%D9%86%D8%B4%D8%B3%D8%AA%D8%B1#HP_FeaturedArea</t>
+  </si>
+  <si>
+    <t>استغاثة بالوتيلي وتلميح رونالدو.. هل يتسبب كورونا في رحيل النجوم عن الكالتشيو؟</t>
+  </si>
+  <si>
+    <t>https://www.yallakora.com//serie-a/2598/News/383393/%D8%A7%D8%B3%D8%AA%D8%BA%D8%A7%D8%AB%D8%A9-%D8%A8%D8%A7%D9%84%D9%88%D8%AA%D9%8A%D9%84%D9%8A-%D9%88%D8%AA%D9%84%D9%85%D9%8A%D8%AD-%D8%B1%D9%88%D9%86%D8%A7%D9%84%D8%AF%D9%88-%D9%87%D9%84-%D9%8A%D8%AA%D8%B3%D8%A8%D8%A8-%D9%83%D9%88%D8%B1%D9%88%D9%86%D8%A7-%D9%81%D9%8A-%D8%B1%D8%AD%D9%8A%D9%84-%D8%A7%D9%84%D9%86%D8%AC%D9%88%D9%85-%D8%B9%D9%86-%D8%A7%D9%84%D9%83%D8%A7%D9%84%D8%AA%D8%B4%D9%8A%D9%88-#HP_FeaturedArea</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +132,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="3">
+    <cellStyle name="hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,145 +469,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>الترتيب</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>عناوين الأخبار</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>لينك الخبر علي موقع يلاكورة ( تحويل مباشر )</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>رسميًا.. إقامة لقاء الرجاء والإسماعيلي بدون جماهير بسبب كورونا</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.yallakora.com//arab-federation/2616/News/383402/%D8%B1%D8%B3%D9%85%D9%8A-%D8%A7-%D8%A5%D9%82%D8%A7%D9%85%D8%A9-%D9%84%D9%82%D8%A7%D8%A1-%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D8%A1-%D9%88%D8%A7%D9%84%D8%A5%D8%B3%D9%85%D8%A7%D8%B9%D9%8A%D9%84%D9%8A-%D8%A8%D8%AF%D9%88%D9%86-%D8%AC%D9%85%D8%A7%D9%87%D9%8A%D8%B1-%D8%A8%D8%B3%D8%A8%D8%A8-%D9%83%D9%88%D8%B1%D9%88%D9%86%D8%A7#HP_FeaturedArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ديربي مانشستر.. يونايتد 1 - 0 سيتي .. خطورة من الضيوف</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.yallakora.com//epl/2596/News/383396/%D8%AF%D9%8A%D8%B1%D8%A8%D9%8A-%D9%85%D8%A7%D9%86%D8%B4%D8%B3%D8%AA%D8%B1-%D9%8A%D9%88%D9%86%D8%A7%D9%8A%D8%AA%D8%AF-1-0-%D8%B3%D9%8A%D8%AA%D9%8A-%D8%AE%D8%B7%D9%88%D8%B1%D8%A9-%D9%85%D9%86-%D8%A7%D9%84%D8%B6%D9%8A%D9%88%D9%81#HP_FeaturedArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>حوريا يقصي إنييمبا ويتأهل لملاقاة بيراميدز في قبل نهائي الكونفدرالية</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.yallakora.com//african-confederation-cup/2615/News/383406/%D8%AD%D9%88%D8%B1%D9%8A%D8%A7-%D9%8A%D9%82%D8%B5%D9%8A-%D8%A5%D9%86%D9%8A%D9%8A%D9%85%D8%A8%D8%A7-%D9%88%D9%8A%D8%AA%D8%A3%D9%87%D9%84-%D9%84%D9%85%D9%84%D8%A7%D9%82%D8%A7%D8%A9-%D8%A8%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D8%AF%D8%B2-%D9%81%D9%8A-%D9%82%D8%A8%D9%84-%D9%86%D9%87%D8%A7%D8%A6%D9%8A-%D8%A7%D9%84%D9%83%D9%88%D9%86%D9%81%D8%AF%D8%B1%D8%A7%D9%84%D9%8A%D8%A9#HP_FeaturedArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>مران الأهلي.. محاضرة مطولة.. راحة لأجايى وجيرالدو.. وتدريب فردي لمعلول</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.yallakora.com//african-champions-league/2614/News/383404/%D9%85%D8%B1%D8%A7%D9%86-%D8%A7%D9%84%D8%A3%D9%87%D9%84%D9%8A-%D9%85%D8%AD%D8%A7%D8%B6%D8%B1%D8%A9-%D9%85%D8%B7%D9%88%D9%84%D8%A9-%D8%B1%D8%A7%D8%AD%D8%A9-%D9%84%D8%A3%D8%AC%D8%A7%D9%8A%D9%89-%D9%88%D8%AC%D9%8A%D8%B1%D8%A7%D9%84%D8%AF%D9%88-%D9%88%D8%AA%D8%AF%D8%B1%D9%8A%D8%A8-%D9%81%D8%B1%D8%AF%D9%8A-%D9%84%D9%85%D8%B9%D9%84%D9%88%D9%84#HP_FeaturedArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>مارسيال يُعادل رقم كريستيانو رونالدو القياسي في ديربي مانشستر</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.yallakora.com//epl/2596/News/383403/%D9%85%D8%A7%D8%B1%D8%B3%D9%8A%D8%A7%D9%84-%D9%8A-%D8%B9%D8%A7%D8%AF%D9%84-%D8%B1%D9%82%D9%85-%D9%83%D8%B1%D9%8A%D8%B3%D8%AA%D9%8A%D8%A7%D9%86%D9%88-%D8%B1%D9%88%D9%86%D8%A7%D9%84%D8%AF%D9%88-%D8%A7%D9%84%D9%82%D9%8A%D8%A7%D8%B3%D9%8A-%D9%81%D9%8A-%D8%AF%D9%8A%D8%B1%D8%A8%D9%8A-%D9%85%D8%A7%D9%86%D8%B4%D8%B3%D8%AA%D8%B1#HP_FeaturedArea</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>استغاثة بالوتيلي وتلميح رونالدو.. هل يتسبب كورونا في رحيل النجوم عن الكالتشيو؟</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.yallakora.com//serie-a/2598/News/383393/%D8%A7%D8%B3%D8%AA%D8%BA%D8%A7%D8%AB%D8%A9-%D8%A8%D8%A7%D9%84%D9%88%D8%AA%D9%8A%D9%84%D9%8A-%D9%88%D8%AA%D9%84%D9%85%D9%8A%D8%AD-%D8%B1%D9%88%D9%86%D8%A7%D9%84%D8%AF%D9%88-%D9%87%D9%84-%D9%8A%D8%AA%D8%B3%D8%A8%D8%A8-%D9%83%D9%88%D8%B1%D9%88%D9%86%D8%A7-%D9%81%D9%8A-%D8%B1%D8%AD%D9%8A%D9%84-%D8%A7%D9%84%D9%86%D8%AC%D9%88%D9%85-%D8%B9%D9%86-%D8%A7%D9%84%D9%83%D8%A7%D9%84%D8%AA%D8%B4%D9%8A%D9%88-#HP_FeaturedArea</t>
-        </is>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>